--- a/th_dialect_dict/datasets/ราชบัณฑิตฯ/หมวด_ณ(6).xlsx
+++ b/th_dialect_dict/datasets/ราชบัณฑิตฯ/หมวด_ณ(6).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kanoon/Downloads/ข้อมูลพจนานุกรม ก-ฮ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d695ccdc58059bb2/Documents/Programming/th_dialect_dict/datasets/ราชบัณฑิตฯ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7F8B63-CA01-474A-A3FD-697CA9CE9D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{6D7F8B63-CA01-474A-A3FD-697CA9CE9D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D821723-E772-4338-92DC-9C062799F824}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="2715" windowWidth="21525" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>เณรหางนาค</t>
   </si>
   <si>
-    <t>พยัญชนะตัวที่ ๑๙ เรียกว่า ณอ เณร เป็นอักษรต่ำ ใช้เป็นพยัญชนะต้น และเป็นตัวสะกดในมาตรากนหรือแม่กน เช่น คุณ บัณฑิต.</t>
-  </si>
-  <si>
     <t>บ. ใน, ที่, เป็นคำบ่งเวลาหรือสถานที่ว่า ตรงนั้นตรงนี้, เช่น ณ ที่นั้น ณ ห้องประชุม, ถ้าใช้นำหน้าสกุล หมายความว่า แห่ง เช่น ณ อยุธยา ณ เชียงใหม่ ณ นคร.</t>
   </si>
   <si>
@@ -77,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve">แม่คำของ "เณรหางนาค" คือ เณร </t>
+  </si>
+  <si>
+    <t>? พยัญชนะตัวที่ ๑๙ เรียกว่า ณอ เณร เป็นอักษรต่ำ ใช้เป็นพยัญชนะต้น และเป็นตัวสะกดในมาตรากนหรือแม่กน เช่น คุณ บัณฑิต.</t>
   </si>
 </sst>
 </file>
@@ -454,18 +454,18 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="59.83203125" customWidth="1"/>
-    <col min="4" max="4" width="65.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="59.85546875" customWidth="1"/>
+    <col min="4" max="4" width="65.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,70 +479,70 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
